--- a/database/industries/darou/delor/product/yearly_seprated.xlsx
+++ b/database/industries/darou/delor/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911DF24-87D2-4127-B82C-AB3D815A63C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F1822-BC6F-4DE0-8F46-C1BFD1D79E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,40 +61,40 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>جامدات</t>
+  </si>
+  <si>
+    <t>استریل</t>
+  </si>
+  <si>
+    <t>سفالسپورین</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>جامدات</t>
-  </si>
-  <si>
-    <t>استریل</t>
-  </si>
-  <si>
-    <t>سفالسپورین</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -649,12 +649,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -664,7 +664,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -698,7 +698,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -732,7 +732,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -764,7 +764,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -784,119 +784,119 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>10845684</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15938017</v>
+      </c>
+      <c r="G11" s="11">
+        <v>14267096</v>
+      </c>
+      <c r="H11" s="11">
+        <v>15646588</v>
+      </c>
+      <c r="I11" s="11">
+        <v>16810621</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>10845684</v>
-      </c>
-      <c r="G11" s="11">
-        <v>15938017</v>
-      </c>
-      <c r="H11" s="11">
-        <v>14267096</v>
-      </c>
-      <c r="I11" s="11">
-        <v>15646588</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>631204539</v>
       </c>
       <c r="F12" s="13">
-        <v>631204539</v>
+        <v>1016971397</v>
       </c>
       <c r="G12" s="13">
-        <v>1016971397</v>
+        <v>1035354282</v>
       </c>
       <c r="H12" s="13">
-        <v>1035354282</v>
+        <v>927482091</v>
       </c>
       <c r="I12" s="13">
-        <v>927482091</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>935054217</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>93433545</v>
       </c>
       <c r="F13" s="11">
-        <v>93433545</v>
+        <v>138445277</v>
       </c>
       <c r="G13" s="11">
-        <v>138445277</v>
+        <v>130596696</v>
       </c>
       <c r="H13" s="11">
-        <v>130596696</v>
+        <v>169693198</v>
       </c>
       <c r="I13" s="11">
-        <v>169693198</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>149078935</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>23403448</v>
       </c>
       <c r="F14" s="13">
-        <v>23403448</v>
+        <v>39689804</v>
       </c>
       <c r="G14" s="13">
-        <v>39689804</v>
+        <v>62607142</v>
       </c>
       <c r="H14" s="13">
-        <v>62607142</v>
+        <v>68579432</v>
       </c>
       <c r="I14" s="13">
-        <v>68579432</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72310357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>0</v>
+        <v>758887216</v>
       </c>
       <c r="F15" s="15">
-        <v>758887216</v>
+        <v>1211044495</v>
       </c>
       <c r="G15" s="15">
-        <v>1211044495</v>
+        <v>1242825216</v>
       </c>
       <c r="H15" s="15">
-        <v>1242825216</v>
+        <v>1181401309</v>
       </c>
       <c r="I15" s="15">
-        <v>1181401309</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1173254130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -906,7 +906,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -914,119 +914,119 @@
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="11">
+        <v>129853</v>
+      </c>
+      <c r="F17" s="11">
+        <v>60192</v>
+      </c>
+      <c r="G17" s="11">
+        <v>168476</v>
+      </c>
+      <c r="H17" s="11">
+        <v>45000</v>
+      </c>
+      <c r="I17" s="11">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F17" s="11">
-        <v>129853</v>
-      </c>
-      <c r="G17" s="11">
-        <v>60192</v>
-      </c>
-      <c r="H17" s="11">
-        <v>168476</v>
-      </c>
-      <c r="I17" s="11">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>1598676</v>
       </c>
       <c r="F18" s="13">
-        <v>1598676</v>
+        <v>1958426</v>
       </c>
       <c r="G18" s="13">
-        <v>1958426</v>
+        <v>8170706</v>
       </c>
       <c r="H18" s="13">
-        <v>8170706</v>
+        <v>6827640</v>
       </c>
       <c r="I18" s="13">
-        <v>6827640</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2392760</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>678073</v>
       </c>
       <c r="F19" s="11">
-        <v>678073</v>
+        <v>1832599</v>
       </c>
       <c r="G19" s="11">
-        <v>1832599</v>
+        <v>3729301</v>
       </c>
       <c r="H19" s="11">
-        <v>3729301</v>
+        <v>896675</v>
       </c>
       <c r="I19" s="11">
-        <v>896675</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1360794</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>5711747</v>
       </c>
       <c r="F20" s="13">
-        <v>5711747</v>
+        <v>3941580</v>
       </c>
       <c r="G20" s="13">
-        <v>3941580</v>
+        <v>6721322</v>
       </c>
       <c r="H20" s="13">
-        <v>6721322</v>
+        <v>4509784</v>
       </c>
       <c r="I20" s="13">
-        <v>4509784</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2035919</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>8118349</v>
       </c>
       <c r="F21" s="15">
-        <v>8118349</v>
+        <v>7792797</v>
       </c>
       <c r="G21" s="15">
-        <v>7792797</v>
+        <v>18789805</v>
       </c>
       <c r="H21" s="15">
-        <v>18789805</v>
+        <v>12279099</v>
       </c>
       <c r="I21" s="15">
-        <v>12279099</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5921473</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1036,16 +1036,16 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>13</v>
+      <c r="E23" s="11">
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -1054,15 +1054,15 @@
         <v>0</v>
       </c>
       <c r="H23" s="11">
-        <v>0</v>
+        <v>11806852</v>
       </c>
       <c r="I23" s="11">
-        <v>11806852</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14107616</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1076,44 +1076,44 @@
         <v>0</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>11806852</v>
       </c>
       <c r="I24" s="17">
-        <v>11806852</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14107616</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
       <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>13</v>
+      <c r="E26" s="17">
+        <v>0</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
@@ -1128,29 +1128,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>767005565</v>
       </c>
       <c r="F27" s="15">
-        <v>767005565</v>
+        <v>1218837292</v>
       </c>
       <c r="G27" s="15">
-        <v>1218837292</v>
+        <v>1261615021</v>
       </c>
       <c r="H27" s="15">
-        <v>1261615021</v>
+        <v>1205487260</v>
       </c>
       <c r="I27" s="15">
-        <v>1205487260</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1193283219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1160,7 +1160,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1180,7 +1180,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1212,7 +1212,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1232,117 +1232,117 @@
         <v>29</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="11">
+        <v>377846</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1002601</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1247188</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1663017</v>
+      </c>
+      <c r="I34" s="11">
+        <v>2536543</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="11">
-        <v>377846</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1002601</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1247188</v>
-      </c>
-      <c r="I34" s="11">
-        <v>1663017</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13">
+        <v>779266</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1772801</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2325833</v>
+      </c>
+      <c r="H35" s="13">
+        <v>3025183</v>
+      </c>
+      <c r="I35" s="13">
+        <v>4994805</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="13">
-        <v>779266</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1772801</v>
-      </c>
-      <c r="H35" s="13">
-        <v>2325833</v>
-      </c>
-      <c r="I35" s="13">
-        <v>3025183</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <v>2362154</v>
+      </c>
+      <c r="F36" s="11">
+        <v>3601345</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4569305</v>
+      </c>
+      <c r="H36" s="11">
+        <v>13191403</v>
+      </c>
+      <c r="I36" s="11">
+        <v>12453808</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11">
-        <v>2362154</v>
-      </c>
-      <c r="G36" s="11">
-        <v>3601345</v>
-      </c>
-      <c r="H36" s="11">
-        <v>4569305</v>
-      </c>
-      <c r="I36" s="11">
-        <v>13191403</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13">
+        <v>591757</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1009961</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1297305</v>
+      </c>
+      <c r="H37" s="13">
+        <v>2111164</v>
+      </c>
+      <c r="I37" s="13">
+        <v>4626210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="13">
-        <v>591757</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1009961</v>
-      </c>
-      <c r="H37" s="13">
-        <v>1297305</v>
-      </c>
-      <c r="I37" s="13">
-        <v>2111164</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>4111023</v>
       </c>
       <c r="F38" s="15">
-        <v>4111023</v>
+        <v>7386708</v>
       </c>
       <c r="G38" s="15">
-        <v>7386708</v>
+        <v>9439631</v>
       </c>
       <c r="H38" s="15">
-        <v>9439631</v>
+        <v>19990767</v>
       </c>
       <c r="I38" s="15">
-        <v>19990767</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24611366</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1362,117 +1362,117 @@
         <v>29</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="11">
+        <v>5841</v>
+      </c>
+      <c r="F40" s="11">
+        <v>3288</v>
+      </c>
+      <c r="G40" s="11">
+        <v>13188</v>
+      </c>
+      <c r="H40" s="11">
+        <v>4686</v>
+      </c>
+      <c r="I40" s="11">
+        <v>16774</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="11">
-        <v>5841</v>
-      </c>
-      <c r="G40" s="11">
-        <v>3288</v>
-      </c>
-      <c r="H40" s="11">
-        <v>13188</v>
-      </c>
-      <c r="I40" s="11">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13">
+        <v>4184</v>
+      </c>
+      <c r="F41" s="13">
+        <v>8612</v>
+      </c>
+      <c r="G41" s="13">
+        <v>30014</v>
+      </c>
+      <c r="H41" s="13">
+        <v>30128</v>
+      </c>
+      <c r="I41" s="13">
+        <v>13063</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="13">
-        <v>4184</v>
-      </c>
-      <c r="G41" s="13">
-        <v>8612</v>
-      </c>
-      <c r="H41" s="13">
-        <v>30014</v>
-      </c>
-      <c r="I41" s="13">
-        <v>30128</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11">
+        <v>32380</v>
+      </c>
+      <c r="F42" s="11">
+        <v>91594</v>
+      </c>
+      <c r="G42" s="11">
+        <v>182579</v>
+      </c>
+      <c r="H42" s="11">
+        <v>202525</v>
+      </c>
+      <c r="I42" s="11">
+        <v>101047</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11">
-        <v>32380</v>
-      </c>
-      <c r="G42" s="11">
-        <v>91594</v>
-      </c>
-      <c r="H42" s="11">
-        <v>182579</v>
-      </c>
-      <c r="I42" s="11">
-        <v>202525</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C43" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
+      <c r="E43" s="13">
+        <v>203070</v>
       </c>
       <c r="F43" s="13">
-        <v>203070</v>
+        <v>214298</v>
       </c>
       <c r="G43" s="13">
-        <v>214298</v>
+        <v>461506</v>
       </c>
       <c r="H43" s="13">
-        <v>461506</v>
+        <v>628355</v>
       </c>
       <c r="I43" s="13">
-        <v>628355</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>199796</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>245475</v>
       </c>
       <c r="F44" s="15">
-        <v>245475</v>
+        <v>317792</v>
       </c>
       <c r="G44" s="15">
-        <v>317792</v>
+        <v>687287</v>
       </c>
       <c r="H44" s="15">
-        <v>687287</v>
+        <v>865694</v>
       </c>
       <c r="I44" s="15">
-        <v>865694</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>330680</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
@@ -1484,62 +1484,62 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>15287</v>
+      </c>
+      <c r="F46" s="11">
+        <v>97085</v>
+      </c>
+      <c r="G46" s="11">
+        <v>268666</v>
+      </c>
+      <c r="H46" s="11">
+        <v>315277</v>
+      </c>
+      <c r="I46" s="11">
+        <v>378659</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11">
-        <v>15287</v>
-      </c>
-      <c r="G46" s="11">
-        <v>97085</v>
-      </c>
-      <c r="H46" s="11">
-        <v>268666</v>
-      </c>
-      <c r="I46" s="11">
-        <v>315277</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17">
-        <v>0</v>
+        <v>15287</v>
       </c>
       <c r="F47" s="17">
-        <v>15287</v>
+        <v>97085</v>
       </c>
       <c r="G47" s="17">
-        <v>97085</v>
+        <v>268666</v>
       </c>
       <c r="H47" s="17">
-        <v>268666</v>
+        <v>315277</v>
       </c>
       <c r="I47" s="17">
-        <v>315277</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>378659</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>0</v>
       </c>
       <c r="F48" s="15">
         <v>0</v>
@@ -1547,14 +1547,14 @@
       <c r="G48" s="15">
         <v>0</v>
       </c>
-      <c r="H48" s="15">
-        <v>0</v>
+      <c r="H48" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>25</v>
       </c>
@@ -1562,8 +1562,8 @@
         <v>29</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
-        <v>13</v>
+      <c r="E49" s="17">
+        <v>0</v>
       </c>
       <c r="F49" s="17">
         <v>0</v>
@@ -1578,29 +1578,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>0</v>
+        <v>4371785</v>
       </c>
       <c r="F50" s="15">
-        <v>4371785</v>
+        <v>7801585</v>
       </c>
       <c r="G50" s="15">
-        <v>7801585</v>
+        <v>10395584</v>
       </c>
       <c r="H50" s="15">
-        <v>10395584</v>
+        <v>21171738</v>
       </c>
       <c r="I50" s="15">
-        <v>21171738</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25320705</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1610,7 +1610,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1620,7 +1620,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1630,7 +1630,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1662,7 +1662,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>33</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1682,95 +1682,95 @@
         <v>34</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="11">
+        <v>34838</v>
+      </c>
+      <c r="F57" s="11">
+        <v>62906</v>
+      </c>
+      <c r="G57" s="11">
+        <v>87417</v>
+      </c>
+      <c r="H57" s="11">
+        <v>106286</v>
+      </c>
+      <c r="I57" s="11">
+        <v>150889</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F57" s="11">
-        <v>34838</v>
-      </c>
-      <c r="G57" s="11">
-        <v>62906</v>
-      </c>
-      <c r="H57" s="11">
-        <v>87417</v>
-      </c>
-      <c r="I57" s="11">
-        <v>106286</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>1235</v>
       </c>
       <c r="F58" s="13">
-        <v>1235</v>
+        <v>1743</v>
       </c>
       <c r="G58" s="13">
-        <v>1743</v>
+        <v>2246</v>
       </c>
       <c r="H58" s="13">
-        <v>2246</v>
+        <v>3262</v>
       </c>
       <c r="I58" s="13">
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>25282</v>
       </c>
       <c r="F59" s="11">
-        <v>25282</v>
+        <v>26013</v>
       </c>
       <c r="G59" s="11">
-        <v>26013</v>
+        <v>34988</v>
       </c>
       <c r="H59" s="11">
-        <v>34988</v>
+        <v>77737</v>
       </c>
       <c r="I59" s="11">
-        <v>77737</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83538</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>13</v>
+      <c r="E60" s="13">
+        <v>25285</v>
       </c>
       <c r="F60" s="13">
-        <v>25285</v>
+        <v>25446</v>
       </c>
       <c r="G60" s="13">
-        <v>25446</v>
+        <v>20721</v>
       </c>
       <c r="H60" s="13">
-        <v>20721</v>
+        <v>30784</v>
       </c>
       <c r="I60" s="13">
-        <v>30784</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63977</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>35</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1790,95 +1790,95 @@
         <v>34</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="11">
+        <v>44982</v>
+      </c>
+      <c r="F62" s="11">
+        <v>54625</v>
+      </c>
+      <c r="G62" s="11">
+        <v>78278</v>
+      </c>
+      <c r="H62" s="11">
+        <v>104133</v>
+      </c>
+      <c r="I62" s="11">
+        <v>127076</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F62" s="11">
-        <v>44982</v>
-      </c>
-      <c r="G62" s="11">
-        <v>54625</v>
-      </c>
-      <c r="H62" s="11">
-        <v>78278</v>
-      </c>
-      <c r="I62" s="11">
-        <v>104133</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D63" s="13"/>
-      <c r="E63" s="13" t="s">
-        <v>13</v>
+      <c r="E63" s="13">
+        <v>2617</v>
       </c>
       <c r="F63" s="13">
-        <v>2617</v>
+        <v>4397</v>
       </c>
       <c r="G63" s="13">
-        <v>4397</v>
+        <v>3673</v>
       </c>
       <c r="H63" s="13">
-        <v>3673</v>
+        <v>4413</v>
       </c>
       <c r="I63" s="13">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>47753</v>
       </c>
       <c r="F64" s="11">
-        <v>47753</v>
+        <v>49980</v>
       </c>
       <c r="G64" s="11">
-        <v>49980</v>
+        <v>48958</v>
       </c>
       <c r="H64" s="11">
-        <v>48958</v>
+        <v>225862</v>
       </c>
       <c r="I64" s="11">
-        <v>225862</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74256</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>35553</v>
       </c>
       <c r="F65" s="13">
-        <v>35553</v>
+        <v>54369</v>
       </c>
       <c r="G65" s="13">
-        <v>54369</v>
+        <v>68663</v>
       </c>
       <c r="H65" s="13">
-        <v>68663</v>
+        <v>139332</v>
       </c>
       <c r="I65" s="13">
-        <v>139332</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>98136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>36</v>
       </c>
@@ -1890,16 +1890,16 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>0</v>
       </c>
       <c r="F67" s="11">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="H67" s="11">
-        <v>0</v>
+        <v>26703</v>
       </c>
       <c r="I67" s="11">
-        <v>26703</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26841</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1934,7 +1934,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1944,7 +1944,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>37</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1976,7 +1976,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>38</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1996,117 +1996,117 @@
         <v>29</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="11">
+        <v>-246106</v>
+      </c>
+      <c r="F74" s="11">
+        <v>-442898</v>
+      </c>
+      <c r="G74" s="11">
+        <v>-565293</v>
+      </c>
+      <c r="H74" s="11">
+        <v>-989519</v>
+      </c>
+      <c r="I74" s="11">
+        <v>-1370375</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="11">
-        <v>-246106</v>
-      </c>
-      <c r="G74" s="11">
-        <v>-442898</v>
-      </c>
-      <c r="H74" s="11">
-        <v>-565293</v>
-      </c>
-      <c r="I74" s="11">
-        <v>-989519</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="12" t="s">
+      <c r="C75" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13">
+        <v>-476303</v>
+      </c>
+      <c r="F75" s="13">
+        <v>-904525</v>
+      </c>
+      <c r="G75" s="13">
+        <v>-1221661</v>
+      </c>
+      <c r="H75" s="13">
+        <v>-1829455</v>
+      </c>
+      <c r="I75" s="13">
+        <v>-2961496</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="13">
-        <v>-476303</v>
-      </c>
-      <c r="G75" s="13">
-        <v>-904525</v>
-      </c>
-      <c r="H75" s="13">
-        <v>-1221661</v>
-      </c>
-      <c r="I75" s="13">
-        <v>-1829455</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>-1259123</v>
+      </c>
+      <c r="F76" s="11">
+        <v>-1771864</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-2219273</v>
+      </c>
+      <c r="H76" s="11">
+        <v>-5250074</v>
+      </c>
+      <c r="I76" s="11">
+        <v>-6133122</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="11">
-        <v>-1259123</v>
-      </c>
-      <c r="G76" s="11">
-        <v>-1771864</v>
-      </c>
-      <c r="H76" s="11">
-        <v>-2219273</v>
-      </c>
-      <c r="I76" s="11">
-        <v>-5250074</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C77" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>13</v>
+      <c r="E77" s="13">
+        <v>-358001</v>
       </c>
       <c r="F77" s="13">
-        <v>-358001</v>
+        <v>-541426</v>
       </c>
       <c r="G77" s="13">
-        <v>-541426</v>
+        <v>-759076</v>
       </c>
       <c r="H77" s="13">
-        <v>-759076</v>
+        <v>-1442215</v>
       </c>
       <c r="I77" s="13">
-        <v>-1442215</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2613686</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>0</v>
+        <v>-2339533</v>
       </c>
       <c r="F78" s="15">
-        <v>-2339533</v>
+        <v>-3660713</v>
       </c>
       <c r="G78" s="15">
-        <v>-3660713</v>
+        <v>-4765303</v>
       </c>
       <c r="H78" s="15">
-        <v>-4765303</v>
+        <v>-9511263</v>
       </c>
       <c r="I78" s="15">
-        <v>-9511263</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13078679</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>40</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2126,117 +2126,117 @@
         <v>29</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="11">
+        <v>-3001</v>
+      </c>
+      <c r="F80" s="11">
+        <v>-2125</v>
+      </c>
+      <c r="G80" s="11">
+        <v>-5765</v>
+      </c>
+      <c r="H80" s="11">
+        <v>-2653</v>
+      </c>
+      <c r="I80" s="11">
+        <v>-12334</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="11">
-        <v>-3001</v>
-      </c>
-      <c r="G80" s="11">
-        <v>-2125</v>
-      </c>
-      <c r="H80" s="11">
-        <v>-5765</v>
-      </c>
-      <c r="I80" s="11">
-        <v>-2653</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="12" t="s">
+      <c r="C81" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13">
+        <v>-2583</v>
+      </c>
+      <c r="F81" s="13">
+        <v>-4714</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-10632</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-11586</v>
+      </c>
+      <c r="I81" s="13">
+        <v>-11420</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="13">
-        <v>-2583</v>
-      </c>
-      <c r="G81" s="13">
-        <v>-4714</v>
-      </c>
-      <c r="H81" s="13">
-        <v>-10632</v>
-      </c>
-      <c r="I81" s="13">
-        <v>-11586</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11">
+        <v>-13424</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-39132</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-66956</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-72656</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-59220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="11">
-        <v>-13424</v>
-      </c>
-      <c r="G82" s="11">
-        <v>-39132</v>
-      </c>
-      <c r="H82" s="11">
-        <v>-66956</v>
-      </c>
-      <c r="I82" s="11">
-        <v>-72656</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C83" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>13</v>
+      <c r="E83" s="13">
+        <v>-87573</v>
       </c>
       <c r="F83" s="13">
-        <v>-87573</v>
+        <v>-76573</v>
       </c>
       <c r="G83" s="13">
-        <v>-76573</v>
+        <v>-120413</v>
       </c>
       <c r="H83" s="13">
-        <v>-120413</v>
+        <v>-309832</v>
       </c>
       <c r="I83" s="13">
-        <v>-309832</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-130879</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>0</v>
+        <v>-106581</v>
       </c>
       <c r="F84" s="15">
-        <v>-106581</v>
+        <v>-122544</v>
       </c>
       <c r="G84" s="15">
-        <v>-122544</v>
+        <v>-203766</v>
       </c>
       <c r="H84" s="15">
-        <v>-203766</v>
+        <v>-396727</v>
       </c>
       <c r="I84" s="15">
-        <v>-396727</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-213853</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>42</v>
       </c>
@@ -2248,62 +2248,62 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
+      <c r="E86" s="11">
+        <v>-6115</v>
       </c>
       <c r="F86" s="11">
-        <v>-6115</v>
+        <v>-11146</v>
       </c>
       <c r="G86" s="11">
-        <v>-11146</v>
+        <v>-47130</v>
       </c>
       <c r="H86" s="11">
-        <v>-47130</v>
+        <v>-29628</v>
       </c>
       <c r="I86" s="11">
-        <v>-29628</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-116916</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17">
-        <v>0</v>
+        <v>-6115</v>
       </c>
       <c r="F87" s="17">
-        <v>-6115</v>
+        <v>-11146</v>
       </c>
       <c r="G87" s="17">
-        <v>-11146</v>
+        <v>-47130</v>
       </c>
       <c r="H87" s="17">
-        <v>-47130</v>
+        <v>-29628</v>
       </c>
       <c r="I87" s="17">
-        <v>-29628</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-116916</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
-        <v>13</v>
+      <c r="E88" s="15">
+        <v>0</v>
       </c>
       <c r="F88" s="15">
         <v>0</v>
@@ -2311,14 +2311,14 @@
       <c r="G88" s="15">
         <v>0</v>
       </c>
-      <c r="H88" s="15">
-        <v>0</v>
+      <c r="H88" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2326,8 @@
         <v>29</v>
       </c>
       <c r="D89" s="17"/>
-      <c r="E89" s="17" t="s">
-        <v>13</v>
+      <c r="E89" s="17">
+        <v>0</v>
       </c>
       <c r="F89" s="17">
         <v>0</v>
@@ -2342,29 +2342,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>0</v>
+        <v>-2452229</v>
       </c>
       <c r="F90" s="15">
-        <v>-2452229</v>
+        <v>-3794403</v>
       </c>
       <c r="G90" s="15">
-        <v>-3794403</v>
+        <v>-5016199</v>
       </c>
       <c r="H90" s="15">
-        <v>-5016199</v>
+        <v>-9937618</v>
       </c>
       <c r="I90" s="15">
-        <v>-9937618</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13409448</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2374,7 +2374,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2384,7 +2384,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2394,7 +2394,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>44</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2426,7 +2426,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>45</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
@@ -2446,117 +2446,117 @@
         <v>29</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="11">
+        <v>131740</v>
+      </c>
+      <c r="F97" s="11">
+        <v>559703</v>
+      </c>
+      <c r="G97" s="11">
+        <v>681895</v>
+      </c>
+      <c r="H97" s="11">
+        <v>673498</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1166168</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="11">
-        <v>131740</v>
-      </c>
-      <c r="G97" s="11">
-        <v>559703</v>
-      </c>
-      <c r="H97" s="11">
-        <v>681895</v>
-      </c>
-      <c r="I97" s="11">
-        <v>673498</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="12" t="s">
+      <c r="C98" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13">
+        <v>302963</v>
+      </c>
+      <c r="F98" s="13">
+        <v>868276</v>
+      </c>
+      <c r="G98" s="13">
+        <v>1104172</v>
+      </c>
+      <c r="H98" s="13">
+        <v>1195728</v>
+      </c>
+      <c r="I98" s="13">
+        <v>2033309</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="13">
-        <v>302963</v>
-      </c>
-      <c r="G98" s="13">
-        <v>868276</v>
-      </c>
-      <c r="H98" s="13">
-        <v>1104172</v>
-      </c>
-      <c r="I98" s="13">
-        <v>1195728</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="10" t="s">
+      <c r="C99" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11">
+        <v>1103031</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1829481</v>
+      </c>
+      <c r="G99" s="11">
+        <v>2350032</v>
+      </c>
+      <c r="H99" s="11">
+        <v>7941329</v>
+      </c>
+      <c r="I99" s="11">
+        <v>6320686</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="11">
-        <v>1103031</v>
-      </c>
-      <c r="G99" s="11">
-        <v>1829481</v>
-      </c>
-      <c r="H99" s="11">
-        <v>2350032</v>
-      </c>
-      <c r="I99" s="11">
-        <v>7941329</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C100" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13" t="s">
-        <v>13</v>
+      <c r="E100" s="13">
+        <v>233756</v>
       </c>
       <c r="F100" s="13">
-        <v>233756</v>
+        <v>468535</v>
       </c>
       <c r="G100" s="13">
-        <v>468535</v>
+        <v>538229</v>
       </c>
       <c r="H100" s="13">
-        <v>538229</v>
+        <v>668949</v>
       </c>
       <c r="I100" s="13">
-        <v>668949</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2012524</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>0</v>
+        <v>1771490</v>
       </c>
       <c r="F101" s="15">
-        <v>1771490</v>
+        <v>3725995</v>
       </c>
       <c r="G101" s="15">
-        <v>3725995</v>
+        <v>4674328</v>
       </c>
       <c r="H101" s="15">
-        <v>4674328</v>
+        <v>10479504</v>
       </c>
       <c r="I101" s="15">
-        <v>10479504</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11532687</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>47</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2576,117 +2576,117 @@
         <v>29</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="11">
+        <v>2840</v>
+      </c>
+      <c r="F103" s="11">
+        <v>1163</v>
+      </c>
+      <c r="G103" s="11">
+        <v>7423</v>
+      </c>
+      <c r="H103" s="11">
+        <v>2033</v>
+      </c>
+      <c r="I103" s="11">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="11">
-        <v>2840</v>
-      </c>
-      <c r="G103" s="11">
-        <v>1163</v>
-      </c>
-      <c r="H103" s="11">
-        <v>7423</v>
-      </c>
-      <c r="I103" s="11">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="12" t="s">
+      <c r="C104" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13">
+        <v>1601</v>
+      </c>
+      <c r="F104" s="13">
+        <v>3898</v>
+      </c>
+      <c r="G104" s="13">
+        <v>19382</v>
+      </c>
+      <c r="H104" s="13">
+        <v>18542</v>
+      </c>
+      <c r="I104" s="13">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="13">
-        <v>1601</v>
-      </c>
-      <c r="G104" s="13">
-        <v>3898</v>
-      </c>
-      <c r="H104" s="13">
-        <v>19382</v>
-      </c>
-      <c r="I104" s="13">
-        <v>18542</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11">
+        <v>18956</v>
+      </c>
+      <c r="F105" s="11">
+        <v>52462</v>
+      </c>
+      <c r="G105" s="11">
+        <v>115623</v>
+      </c>
+      <c r="H105" s="11">
+        <v>129869</v>
+      </c>
+      <c r="I105" s="11">
+        <v>41827</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11">
-        <v>18956</v>
-      </c>
-      <c r="G105" s="11">
-        <v>52462</v>
-      </c>
-      <c r="H105" s="11">
-        <v>115623</v>
-      </c>
-      <c r="I105" s="11">
-        <v>129869</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C106" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>13</v>
+      <c r="E106" s="13">
+        <v>115497</v>
       </c>
       <c r="F106" s="13">
-        <v>115497</v>
+        <v>137725</v>
       </c>
       <c r="G106" s="13">
-        <v>137725</v>
+        <v>341093</v>
       </c>
       <c r="H106" s="13">
-        <v>341093</v>
+        <v>318523</v>
       </c>
       <c r="I106" s="13">
-        <v>318523</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68917</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>0</v>
+        <v>138894</v>
       </c>
       <c r="F107" s="15">
-        <v>138894</v>
+        <v>195248</v>
       </c>
       <c r="G107" s="15">
-        <v>195248</v>
+        <v>483521</v>
       </c>
       <c r="H107" s="15">
-        <v>483521</v>
+        <v>468967</v>
       </c>
       <c r="I107" s="15">
-        <v>468967</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116827</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>49</v>
       </c>
@@ -2698,72 +2698,72 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>13</v>
+      <c r="E109" s="11">
+        <v>9172</v>
       </c>
       <c r="F109" s="11">
-        <v>9172</v>
+        <v>85939</v>
       </c>
       <c r="G109" s="11">
-        <v>85939</v>
+        <v>221536</v>
       </c>
       <c r="H109" s="11">
-        <v>221536</v>
+        <v>285649</v>
       </c>
       <c r="I109" s="11">
-        <v>285649</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>261743</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17">
-        <v>0</v>
+        <v>9172</v>
       </c>
       <c r="F110" s="17">
-        <v>9172</v>
+        <v>85939</v>
       </c>
       <c r="G110" s="17">
-        <v>85939</v>
+        <v>221536</v>
       </c>
       <c r="H110" s="17">
-        <v>221536</v>
+        <v>285649</v>
       </c>
       <c r="I110" s="17">
-        <v>285649</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>261743</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>0</v>
+        <v>1919556</v>
       </c>
       <c r="F111" s="15">
-        <v>1919556</v>
+        <v>4007182</v>
       </c>
       <c r="G111" s="15">
-        <v>4007182</v>
+        <v>5379385</v>
       </c>
       <c r="H111" s="15">
-        <v>5379385</v>
+        <v>11234120</v>
       </c>
       <c r="I111" s="15">
-        <v>11234120</v>
+        <v>11911257</v>
       </c>
     </row>
   </sheetData>
